--- a/Project_work/Raw Data_National/National_data_2003.xlsx
+++ b/Project_work/Raw Data_National/National_data_2003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nani/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nani/Documents/Project_work/Raw Data_National/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5EE522-2034-0847-8DEB-E6EF1F050AF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CBA8C-C5DC-2943-80F7-2FD6DAA54C22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8404636A-F64F-6641-ABC0-23129E8DF858}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{8404636A-F64F-6641-ABC0-23129E8DF858}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -895,10 +895,13 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
